--- a/2022.2/Adatbaziskezeles/labdarugo_vilagbajnoksag_adat.xlsx
+++ b/2022.2/Adatbaziskezeles/labdarugo_vilagbajnoksag_adat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Workspace\oktv_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korne\OneDrive\Dokumentumok\GitHub\diku-oktv\2022.2\Adatbaziskezeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BE8716-6462-4CD4-9BEC-295BF824B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B94DC-11FA-4DE6-B7DF-D635D1FEE82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Országok" sheetId="2" r:id="rId1"/>
@@ -3044,7 +3044,7 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12399,9 +12399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A502763-53F9-4097-ABA9-C7EDE190B1FE}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
